--- a/data_raw/SOFR_OIS_latest.xlsx
+++ b/data_raw/SOFR_OIS_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4125,6 +4125,531 @@
         <v>0.04067</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.038171</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.034732</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.033821</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.03428</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.037588</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.040988</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.040763</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.037782</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.034158</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.033241</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.03379</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.037315</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.040945</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.04079799999999999</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.037587</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.03395</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.032989</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.033471</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.037135</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.040899</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.040834</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.037691</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.034045</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.03302</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.033373</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.036805</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.040519</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.040441</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.037563</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.033936</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.032953</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.033417</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.03698</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.040858</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.040848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/SOFR_OIS_latest.xlsx
+++ b/data_raw/SOFR_OIS_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C316"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5175,6 +5175,531 @@
         <v>0.039537</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.035889</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.032494</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.031652</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.03203</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.035202</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.038809</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.038736</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.036396</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.032997</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.032083</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.032355</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.03548</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.039063</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.038958</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.036191</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.032851</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.031948</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.032167</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.035115</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.038665</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.038564</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.035877</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.032752</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.031925</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.032132</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.034901</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.038387</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.038277</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.036111</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.033047</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.032276</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.032528</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.03532</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.038721</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.038535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/SOFR_OIS_latest.xlsx
+++ b/data_raw/SOFR_OIS_latest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C351"/>
+  <dimension ref="A1:C379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5700,6 +5700,426 @@
         <v>0.038535</v>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.03611</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.032951</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.032121</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.03232</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.035112</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.038518</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.038348</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.035892</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.032656</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.031866</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.032177</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.03504</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.038453</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.038279</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.035968</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.033045</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.032406</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.032855</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.035614</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.038849</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.038613</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1Y</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.036025</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2Y</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.033236</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.032632</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>5Y</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.033035</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>10Y</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.035915</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>20Y</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.039245</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>30Y</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.039038</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
